--- a/examples/offsets.xlsx
+++ b/examples/offsets.xlsx
@@ -781,7 +781,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="247">
+  <cellStyleXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1029,6 +1029,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1101,7 +1102,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="247">
+  <cellStyles count="248">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1277,6 +1278,7 @@
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1784,8 +1786,8 @@
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C34" sqref="C34"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="1">
-      <selection activeCell="B428" sqref="B428:B628"/>
+    <sheetView tabSelected="1" topLeftCell="A1203" workbookViewId="1">
+      <selection activeCell="B1248" sqref="B1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3507,7 +3509,7 @@
       </c>
       <c r="C125" s="37">
         <f ca="1">C1244</f>
-        <v>0.98079454804047428</v>
+        <v>1.0459281432475469</v>
       </c>
       <c r="D125" s="37"/>
       <c r="E125" s="37"/>
@@ -3535,7 +3537,7 @@
       </c>
       <c r="C126" s="37">
         <f t="shared" ref="C126" ca="1" si="4">C133/(C115*TWh_per_GW)</f>
-        <v>0.75341040766599565</v>
+        <v>0.79809114236483614</v>
       </c>
       <c r="D126" s="37"/>
       <c r="E126" s="37"/>
@@ -3563,7 +3565,7 @@
       </c>
       <c r="C127" s="37">
         <f ca="1">C1245</f>
-        <v>0.35255123437822339</v>
+        <v>0.33764517424792478</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -3690,7 +3692,7 @@
       </c>
       <c r="C132" s="36">
         <f ca="1">C1249</f>
-        <v>131.47518746421383</v>
+        <v>140.20632453790267</v>
       </c>
       <c r="D132" s="36"/>
       <c r="E132" s="36"/>
@@ -3718,7 +3720,7 @@
       </c>
       <c r="C133" s="36">
         <f t="shared" ref="C133" ca="1" si="6">SUM(C131:C132)</f>
-        <v>147.22518746421383</v>
+        <v>155.95632453790267</v>
       </c>
       <c r="D133" s="36"/>
       <c r="E133" s="36"/>
@@ -3746,7 +3748,7 @@
       </c>
       <c r="C134" s="36">
         <f ca="1">C1250</f>
-        <v>206.50481253578616</v>
+        <v>197.77367546209734</v>
       </c>
       <c r="D134" s="36"/>
       <c r="E134" s="36"/>
@@ -3817,7 +3819,7 @@
       </c>
       <c r="C137" s="36">
         <f ca="1">C1259</f>
-        <v>443.83783567231035</v>
+        <v>425.07212782192909</v>
       </c>
       <c r="D137" s="36"/>
       <c r="E137" s="36"/>
@@ -3865,7 +3867,7 @@
       </c>
       <c r="C139" s="36">
         <f ca="1">C1255</f>
-        <v>156.99875761236635</v>
+        <v>150.36076377445099</v>
       </c>
       <c r="D139" s="36"/>
       <c r="E139" s="36"/>
@@ -3921,7 +3923,7 @@
       </c>
       <c r="C141" s="36">
         <f t="shared" ref="C141" ca="1" si="7">SUM(C139:C140)</f>
-        <v>234.99875761236635</v>
+        <v>228.36076377445099</v>
       </c>
       <c r="D141" s="36"/>
       <c r="E141" s="36"/>
@@ -20875,7 +20877,7 @@
     </row>
     <row r="836" spans="2:19">
       <c r="B836" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C836" s="24">
         <f ca="1">C835-C632-(C633/2)</f>
@@ -20900,8 +20902,7 @@
     </row>
     <row r="837" spans="2:19">
       <c r="B837" s="25">
-        <f>B836+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C837" s="24">
         <f ca="1">C836-AVERAGE(C633:C634)</f>
@@ -20926,11 +20927,10 @@
     </row>
     <row r="838" spans="2:19">
       <c r="B838" s="25">
-        <f t="shared" ref="B838:B901" si="70">B837+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C838" s="24">
-        <f t="shared" ref="C838:C901" ca="1" si="71">C837-AVERAGE(C634:C635)</f>
+        <f t="shared" ref="C838:C901" ca="1" si="70">C837-AVERAGE(C634:C635)</f>
         <v>1</v>
       </c>
       <c r="D838" s="24"/>
@@ -20952,11 +20952,10 @@
     </row>
     <row r="839" spans="2:19">
       <c r="B839" s="25">
-        <f t="shared" si="70"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C839" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D839" s="24"/>
@@ -20978,11 +20977,10 @@
     </row>
     <row r="840" spans="2:19">
       <c r="B840" s="25">
-        <f t="shared" si="70"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C840" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D840" s="24"/>
@@ -21004,11 +21002,10 @@
     </row>
     <row r="841" spans="2:19">
       <c r="B841" s="25">
-        <f t="shared" si="70"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C841" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D841" s="24"/>
@@ -21030,11 +21027,10 @@
     </row>
     <row r="842" spans="2:19">
       <c r="B842" s="25">
-        <f t="shared" si="70"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C842" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D842" s="24"/>
@@ -21056,11 +21052,10 @@
     </row>
     <row r="843" spans="2:19">
       <c r="B843" s="25">
-        <f t="shared" si="70"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C843" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D843" s="24"/>
@@ -21082,11 +21077,10 @@
     </row>
     <row r="844" spans="2:19">
       <c r="B844" s="25">
-        <f t="shared" si="70"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C844" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D844" s="24"/>
@@ -21108,11 +21102,10 @@
     </row>
     <row r="845" spans="2:19">
       <c r="B845" s="25">
-        <f t="shared" si="70"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C845" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D845" s="24"/>
@@ -21134,11 +21127,10 @@
     </row>
     <row r="846" spans="2:19">
       <c r="B846" s="25">
-        <f t="shared" si="70"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C846" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D846" s="24"/>
@@ -21160,11 +21152,10 @@
     </row>
     <row r="847" spans="2:19">
       <c r="B847" s="25">
-        <f t="shared" si="70"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C847" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D847" s="24"/>
@@ -21186,11 +21177,10 @@
     </row>
     <row r="848" spans="2:19">
       <c r="B848" s="25">
-        <f t="shared" si="70"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C848" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="D848" s="24"/>
@@ -21212,11 +21202,10 @@
     </row>
     <row r="849" spans="2:19">
       <c r="B849" s="25">
-        <f t="shared" si="70"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C849" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.99974708878483409</v>
       </c>
       <c r="D849" s="24"/>
@@ -21238,11 +21227,10 @@
     </row>
     <row r="850" spans="2:19">
       <c r="B850" s="25">
-        <f t="shared" si="70"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C850" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.99856313985009815</v>
       </c>
       <c r="D850" s="24"/>
@@ -21264,11 +21252,10 @@
     </row>
     <row r="851" spans="2:19">
       <c r="B851" s="25">
-        <f t="shared" si="70"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C851" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.99602293790655383</v>
       </c>
       <c r="D851" s="24"/>
@@ -21290,11 +21277,10 @@
     </row>
     <row r="852" spans="2:19">
       <c r="B852" s="25">
-        <f t="shared" si="70"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C852" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.99212648295420125</v>
       </c>
       <c r="D852" s="24"/>
@@ -21316,11 +21302,10 @@
     </row>
     <row r="853" spans="2:19">
       <c r="B853" s="25">
-        <f t="shared" si="70"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C853" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.98687377499304041</v>
       </c>
       <c r="D853" s="24"/>
@@ -21342,11 +21327,10 @@
     </row>
     <row r="854" spans="2:19">
       <c r="B854" s="25">
-        <f t="shared" si="70"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C854" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.97877638498615627</v>
       </c>
       <c r="D854" s="24"/>
@@ -21368,11 +21352,10 @@
     </row>
     <row r="855" spans="2:19">
       <c r="B855" s="25">
-        <f t="shared" si="70"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C855" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.96346363410600155</v>
       </c>
       <c r="D855" s="24"/>
@@ -21394,11 +21377,10 @@
     </row>
     <row r="856" spans="2:19">
       <c r="B856" s="25">
-        <f t="shared" si="70"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C856" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.93953587550266759</v>
       </c>
       <c r="D856" s="24"/>
@@ -21420,11 +21402,10 @@
     </row>
     <row r="857" spans="2:19">
       <c r="B857" s="25">
-        <f t="shared" si="70"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C857" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.9120419145081059</v>
       </c>
       <c r="D857" s="24"/>
@@ -21446,11 +21427,10 @@
     </row>
     <row r="858" spans="2:19">
       <c r="B858" s="25">
-        <f t="shared" si="70"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C858" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.88454795351354421</v>
       </c>
       <c r="D858" s="24"/>
@@ -21472,11 +21452,10 @@
     </row>
     <row r="859" spans="2:19">
       <c r="B859" s="25">
-        <f t="shared" si="70"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C859" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.85705399251898251</v>
       </c>
       <c r="D859" s="24"/>
@@ -21498,11 +21477,10 @@
     </row>
     <row r="860" spans="2:19">
       <c r="B860" s="25">
-        <f t="shared" si="70"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C860" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.82956003152442082</v>
       </c>
       <c r="D860" s="24"/>
@@ -21524,11 +21502,10 @@
     </row>
     <row r="861" spans="2:19">
       <c r="B861" s="25">
-        <f t="shared" si="70"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C861" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.80206607052985912</v>
       </c>
       <c r="D861" s="24"/>
@@ -21550,11 +21527,10 @@
     </row>
     <row r="862" spans="2:19">
       <c r="B862" s="25">
-        <f t="shared" si="70"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C862" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.77457210953529743</v>
       </c>
       <c r="D862" s="24"/>
@@ -21576,11 +21552,10 @@
     </row>
     <row r="863" spans="2:19">
       <c r="B863" s="25">
-        <f t="shared" si="70"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C863" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.74707814854073573</v>
       </c>
       <c r="D863" s="24"/>
@@ -21602,11 +21577,10 @@
     </row>
     <row r="864" spans="2:19">
       <c r="B864" s="25">
-        <f t="shared" si="70"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C864" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.71958418754617404</v>
       </c>
       <c r="D864" s="24"/>
@@ -21628,11 +21602,10 @@
     </row>
     <row r="865" spans="2:19">
       <c r="B865" s="25">
-        <f t="shared" si="70"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C865" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.69209022655161234</v>
       </c>
       <c r="D865" s="24"/>
@@ -21654,11 +21627,10 @@
     </row>
     <row r="866" spans="2:19">
       <c r="B866" s="25">
-        <f t="shared" si="70"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C866" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.66459626555705065</v>
       </c>
       <c r="D866" s="24"/>
@@ -21680,11 +21652,10 @@
     </row>
     <row r="867" spans="2:19">
       <c r="B867" s="25">
-        <f t="shared" si="70"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C867" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.63710230456248895</v>
       </c>
       <c r="D867" s="24"/>
@@ -21706,11 +21677,10 @@
     </row>
     <row r="868" spans="2:19">
       <c r="B868" s="25">
-        <f t="shared" si="70"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C868" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.60960834356792726</v>
       </c>
       <c r="D868" s="24"/>
@@ -21732,11 +21702,10 @@
     </row>
     <row r="869" spans="2:19">
       <c r="B869" s="25">
-        <f t="shared" si="70"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C869" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.58224077182388712</v>
       </c>
       <c r="D869" s="24"/>
@@ -21758,11 +21727,10 @@
     </row>
     <row r="870" spans="2:19">
       <c r="B870" s="25">
-        <f t="shared" si="70"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C870" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.55519478456822491</v>
       </c>
       <c r="D870" s="24"/>
@@ -21784,11 +21752,10 @@
     </row>
     <row r="871" spans="2:19">
       <c r="B871" s="25">
-        <f t="shared" si="70"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C871" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.52853918778827524</v>
       </c>
       <c r="D871" s="24"/>
@@ -21810,11 +21777,10 @@
     </row>
     <row r="872" spans="2:19">
       <c r="B872" s="25">
-        <f t="shared" si="70"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C872" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.50227398148403812</v>
       </c>
       <c r="D872" s="24"/>
@@ -21836,11 +21802,10 @@
     </row>
     <row r="873" spans="2:19">
       <c r="B873" s="25">
-        <f t="shared" si="70"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C873" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.4763991656555136</v>
       </c>
       <c r="D873" s="24"/>
@@ -21862,11 +21827,10 @@
     </row>
     <row r="874" spans="2:19">
       <c r="B874" s="25">
-        <f t="shared" si="70"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C874" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.45165856429764328</v>
       </c>
       <c r="D874" s="24"/>
@@ -21888,11 +21852,10 @@
     </row>
     <row r="875" spans="2:19">
       <c r="B875" s="25">
-        <f t="shared" si="70"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C875" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.42939072744417434</v>
       </c>
       <c r="D875" s="24"/>
@@ -21914,11 +21877,10 @@
     </row>
     <row r="876" spans="2:19">
       <c r="B876" s="25">
-        <f t="shared" si="70"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C876" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.40923369901778328</v>
       </c>
       <c r="D876" s="24"/>
@@ -21940,11 +21902,10 @@
     </row>
     <row r="877" spans="2:19">
       <c r="B877" s="25">
-        <f t="shared" si="70"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C877" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.38965373374686663</v>
       </c>
       <c r="D877" s="24"/>
@@ -21966,11 +21927,10 @@
     </row>
     <row r="878" spans="2:19">
       <c r="B878" s="25">
-        <f t="shared" si="70"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C878" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.37007376847594997</v>
       </c>
       <c r="D878" s="24"/>
@@ -21992,11 +21952,10 @@
     </row>
     <row r="879" spans="2:19">
       <c r="B879" s="25">
-        <f t="shared" si="70"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C879" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.35049380320503332</v>
       </c>
       <c r="D879" s="24"/>
@@ -22018,11 +21977,10 @@
     </row>
     <row r="880" spans="2:19">
       <c r="B880" s="25">
-        <f t="shared" si="70"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C880" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.33091383793411666</v>
       </c>
       <c r="D880" s="24"/>
@@ -22044,11 +22002,10 @@
     </row>
     <row r="881" spans="2:19">
       <c r="B881" s="25">
-        <f t="shared" si="70"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C881" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.31133387266320001</v>
       </c>
       <c r="D881" s="24"/>
@@ -22070,11 +22027,10 @@
     </row>
     <row r="882" spans="2:19">
       <c r="B882" s="25">
-        <f t="shared" si="70"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C882" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.29175390739228335</v>
       </c>
       <c r="D882" s="24"/>
@@ -22096,11 +22052,10 @@
     </row>
     <row r="883" spans="2:19">
       <c r="B883" s="25">
-        <f t="shared" si="70"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C883" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.2721739421213667</v>
       </c>
       <c r="D883" s="24"/>
@@ -22122,11 +22077,10 @@
     </row>
     <row r="884" spans="2:19">
       <c r="B884" s="25">
-        <f t="shared" si="70"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C884" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.25259397685045004</v>
       </c>
       <c r="D884" s="24"/>
@@ -22148,11 +22102,10 @@
     </row>
     <row r="885" spans="2:19">
       <c r="B885" s="25">
-        <f t="shared" si="70"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C885" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.23301401157953341</v>
       </c>
       <c r="D885" s="24"/>
@@ -22174,11 +22127,10 @@
     </row>
     <row r="886" spans="2:19">
       <c r="B886" s="25">
-        <f t="shared" si="70"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C886" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.21343404630861679</v>
       </c>
       <c r="D886" s="24"/>
@@ -22200,11 +22152,10 @@
     </row>
     <row r="887" spans="2:19">
       <c r="B887" s="25">
-        <f t="shared" si="70"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C887" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.19385408103770016</v>
       </c>
       <c r="D887" s="24"/>
@@ -22226,11 +22177,10 @@
     </row>
     <row r="888" spans="2:19">
       <c r="B888" s="25">
-        <f t="shared" si="70"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C888" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.17427411576678353</v>
       </c>
       <c r="D888" s="24"/>
@@ -22252,11 +22202,10 @@
     </row>
     <row r="889" spans="2:19">
       <c r="B889" s="25">
-        <f t="shared" si="70"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C889" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.15469415049586691</v>
       </c>
       <c r="D889" s="24"/>
@@ -22278,11 +22227,10 @@
     </row>
     <row r="890" spans="2:19">
       <c r="B890" s="25">
-        <f t="shared" si="70"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C890" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.13511418522495028</v>
       </c>
       <c r="D890" s="24"/>
@@ -22304,11 +22252,10 @@
     </row>
     <row r="891" spans="2:19">
       <c r="B891" s="25">
-        <f t="shared" si="70"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C891" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>0.11553421995403365</v>
       </c>
       <c r="D891" s="24"/>
@@ -22330,11 +22277,10 @@
     </row>
     <row r="892" spans="2:19">
       <c r="B892" s="25">
-        <f t="shared" si="70"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C892" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>9.608616390906552E-2</v>
       </c>
       <c r="D892" s="24"/>
@@ -22356,11 +22302,10 @@
     </row>
     <row r="893" spans="2:19">
       <c r="B893" s="25">
-        <f t="shared" si="70"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C893" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>7.725294835659377E-2</v>
       </c>
       <c r="D893" s="24"/>
@@ -22382,11 +22327,10 @@
     </row>
     <row r="894" spans="2:19">
       <c r="B894" s="25">
-        <f t="shared" si="70"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C894" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>5.9385595337217739E-2</v>
       </c>
       <c r="D894" s="24"/>
@@ -22408,11 +22352,10 @@
     </row>
     <row r="895" spans="2:19">
       <c r="B895" s="25">
-        <f t="shared" si="70"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C895" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>4.248410485093744E-2</v>
       </c>
       <c r="D895" s="24"/>
@@ -22434,11 +22377,10 @@
     </row>
     <row r="896" spans="2:19">
       <c r="B896" s="25">
-        <f t="shared" si="70"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C896" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>2.6548476897752867E-2</v>
       </c>
       <c r="D896" s="24"/>
@@ -22460,11 +22402,10 @@
     </row>
     <row r="897" spans="2:19">
       <c r="B897" s="25">
-        <f t="shared" si="70"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C897" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1.2355021543668538E-2</v>
       </c>
       <c r="D897" s="24"/>
@@ -22486,11 +22427,10 @@
     </row>
     <row r="898" spans="2:19">
       <c r="B898" s="25">
-        <f t="shared" si="70"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C898" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>2.9439572664511846E-3</v>
       </c>
       <c r="D898" s="24"/>
@@ -22512,11 +22452,10 @@
     </row>
     <row r="899" spans="2:19">
       <c r="B899" s="25">
-        <f t="shared" si="70"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C899" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D899" s="24"/>
@@ -22538,11 +22477,10 @@
     </row>
     <row r="900" spans="2:19">
       <c r="B900" s="25">
-        <f t="shared" si="70"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C900" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D900" s="24"/>
@@ -22564,11 +22502,10 @@
     </row>
     <row r="901" spans="2:19">
       <c r="B901" s="25">
-        <f t="shared" si="70"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C901" s="24">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="70"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D901" s="24"/>
@@ -22590,11 +22527,10 @@
     </row>
     <row r="902" spans="2:19">
       <c r="B902" s="25">
-        <f t="shared" ref="B902:B965" si="72">B901+1</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C902" s="24">
-        <f t="shared" ref="C902:C965" ca="1" si="73">C901-AVERAGE(C698:C699)</f>
+        <f t="shared" ref="C902:C965" ca="1" si="71">C901-AVERAGE(C698:C699)</f>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D902" s="24"/>
@@ -22616,11 +22552,10 @@
     </row>
     <row r="903" spans="2:19">
       <c r="B903" s="25">
-        <f t="shared" si="72"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C903" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D903" s="24"/>
@@ -22642,11 +22577,10 @@
     </row>
     <row r="904" spans="2:19">
       <c r="B904" s="25">
-        <f t="shared" si="72"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C904" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D904" s="24"/>
@@ -22668,11 +22602,10 @@
     </row>
     <row r="905" spans="2:19">
       <c r="B905" s="25">
-        <f t="shared" si="72"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C905" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D905" s="24"/>
@@ -22694,11 +22627,10 @@
     </row>
     <row r="906" spans="2:19">
       <c r="B906" s="25">
-        <f t="shared" si="72"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C906" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D906" s="24"/>
@@ -22720,11 +22652,10 @@
     </row>
     <row r="907" spans="2:19">
       <c r="B907" s="25">
-        <f t="shared" si="72"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C907" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D907" s="24"/>
@@ -22746,11 +22677,10 @@
     </row>
     <row r="908" spans="2:19">
       <c r="B908" s="25">
-        <f t="shared" si="72"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C908" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D908" s="24"/>
@@ -22772,11 +22702,10 @@
     </row>
     <row r="909" spans="2:19">
       <c r="B909" s="25">
-        <f t="shared" si="72"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C909" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D909" s="24"/>
@@ -22798,11 +22727,10 @@
     </row>
     <row r="910" spans="2:19">
       <c r="B910" s="25">
-        <f t="shared" si="72"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C910" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D910" s="24"/>
@@ -22824,11 +22752,10 @@
     </row>
     <row r="911" spans="2:19">
       <c r="B911" s="25">
-        <f t="shared" si="72"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C911" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D911" s="24"/>
@@ -22850,11 +22777,10 @@
     </row>
     <row r="912" spans="2:19">
       <c r="B912" s="25">
-        <f t="shared" si="72"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C912" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D912" s="24"/>
@@ -22876,11 +22802,10 @@
     </row>
     <row r="913" spans="2:19">
       <c r="B913" s="25">
-        <f t="shared" si="72"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C913" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D913" s="24"/>
@@ -22902,11 +22827,10 @@
     </row>
     <row r="914" spans="2:19">
       <c r="B914" s="25">
-        <f t="shared" si="72"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C914" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D914" s="24"/>
@@ -22928,11 +22852,10 @@
     </row>
     <row r="915" spans="2:19">
       <c r="B915" s="25">
-        <f t="shared" si="72"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C915" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D915" s="24"/>
@@ -22954,11 +22877,10 @@
     </row>
     <row r="916" spans="2:19">
       <c r="B916" s="25">
-        <f t="shared" si="72"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C916" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D916" s="24"/>
@@ -22980,11 +22902,10 @@
     </row>
     <row r="917" spans="2:19">
       <c r="B917" s="25">
-        <f t="shared" si="72"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C917" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D917" s="24"/>
@@ -23006,11 +22927,10 @@
     </row>
     <row r="918" spans="2:19">
       <c r="B918" s="25">
-        <f t="shared" si="72"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C918" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D918" s="24"/>
@@ -23032,11 +22952,10 @@
     </row>
     <row r="919" spans="2:19">
       <c r="B919" s="25">
-        <f t="shared" si="72"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C919" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D919" s="24"/>
@@ -23058,11 +22977,10 @@
     </row>
     <row r="920" spans="2:19">
       <c r="B920" s="25">
-        <f t="shared" si="72"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C920" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D920" s="24"/>
@@ -23084,11 +23002,10 @@
     </row>
     <row r="921" spans="2:19">
       <c r="B921" s="25">
-        <f t="shared" si="72"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C921" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D921" s="24"/>
@@ -23110,11 +23027,10 @@
     </row>
     <row r="922" spans="2:19">
       <c r="B922" s="25">
-        <f t="shared" si="72"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C922" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D922" s="24"/>
@@ -23136,11 +23052,10 @@
     </row>
     <row r="923" spans="2:19">
       <c r="B923" s="25">
-        <f t="shared" si="72"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C923" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D923" s="24"/>
@@ -23162,11 +23077,10 @@
     </row>
     <row r="924" spans="2:19">
       <c r="B924" s="25">
-        <f t="shared" si="72"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C924" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D924" s="24"/>
@@ -23188,11 +23102,10 @@
     </row>
     <row r="925" spans="2:19">
       <c r="B925" s="25">
-        <f t="shared" si="72"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C925" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D925" s="24"/>
@@ -23214,11 +23127,10 @@
     </row>
     <row r="926" spans="2:19">
       <c r="B926" s="25">
-        <f t="shared" si="72"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C926" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D926" s="24"/>
@@ -23240,11 +23152,10 @@
     </row>
     <row r="927" spans="2:19">
       <c r="B927" s="25">
-        <f t="shared" si="72"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C927" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D927" s="24"/>
@@ -23266,11 +23177,10 @@
     </row>
     <row r="928" spans="2:19">
       <c r="B928" s="25">
-        <f t="shared" si="72"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C928" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D928" s="24"/>
@@ -23292,11 +23202,10 @@
     </row>
     <row r="929" spans="2:19">
       <c r="B929" s="25">
-        <f t="shared" si="72"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C929" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D929" s="24"/>
@@ -23318,11 +23227,10 @@
     </row>
     <row r="930" spans="2:19">
       <c r="B930" s="25">
-        <f t="shared" si="72"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C930" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D930" s="24"/>
@@ -23344,11 +23252,10 @@
     </row>
     <row r="931" spans="2:19">
       <c r="B931" s="25">
-        <f t="shared" si="72"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C931" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D931" s="24"/>
@@ -23370,11 +23277,10 @@
     </row>
     <row r="932" spans="2:19">
       <c r="B932" s="25">
-        <f t="shared" si="72"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C932" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D932" s="24"/>
@@ -23396,11 +23302,10 @@
     </row>
     <row r="933" spans="2:19">
       <c r="B933" s="25">
-        <f t="shared" si="72"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C933" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D933" s="24"/>
@@ -23422,11 +23327,10 @@
     </row>
     <row r="934" spans="2:19">
       <c r="B934" s="25">
-        <f t="shared" si="72"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C934" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D934" s="24"/>
@@ -23448,11 +23352,10 @@
     </row>
     <row r="935" spans="2:19">
       <c r="B935" s="25">
-        <f t="shared" si="72"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C935" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D935" s="24"/>
@@ -23474,11 +23377,10 @@
     </row>
     <row r="936" spans="2:19">
       <c r="B936" s="25">
-        <f t="shared" si="72"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C936" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D936" s="24"/>
@@ -23500,11 +23402,10 @@
     </row>
     <row r="937" spans="2:19">
       <c r="B937" s="25">
-        <f t="shared" si="72"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C937" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D937" s="24"/>
@@ -23526,11 +23427,10 @@
     </row>
     <row r="938" spans="2:19">
       <c r="B938" s="25">
-        <f t="shared" si="72"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C938" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D938" s="24"/>
@@ -23552,11 +23452,10 @@
     </row>
     <row r="939" spans="2:19">
       <c r="B939" s="25">
-        <f t="shared" si="72"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C939" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D939" s="24"/>
@@ -23578,11 +23477,10 @@
     </row>
     <row r="940" spans="2:19">
       <c r="B940" s="25">
-        <f t="shared" si="72"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C940" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D940" s="24"/>
@@ -23604,11 +23502,10 @@
     </row>
     <row r="941" spans="2:19">
       <c r="B941" s="25">
-        <f t="shared" si="72"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C941" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D941" s="24"/>
@@ -23630,11 +23527,10 @@
     </row>
     <row r="942" spans="2:19">
       <c r="B942" s="25">
-        <f t="shared" si="72"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C942" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D942" s="24"/>
@@ -23656,11 +23552,10 @@
     </row>
     <row r="943" spans="2:19">
       <c r="B943" s="25">
-        <f t="shared" si="72"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C943" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D943" s="24"/>
@@ -23682,11 +23577,10 @@
     </row>
     <row r="944" spans="2:19">
       <c r="B944" s="25">
-        <f t="shared" si="72"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C944" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D944" s="24"/>
@@ -23708,11 +23602,10 @@
     </row>
     <row r="945" spans="2:19">
       <c r="B945" s="25">
-        <f t="shared" si="72"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C945" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D945" s="24"/>
@@ -23734,11 +23627,10 @@
     </row>
     <row r="946" spans="2:19">
       <c r="B946" s="25">
-        <f t="shared" si="72"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C946" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D946" s="24"/>
@@ -23760,11 +23652,10 @@
     </row>
     <row r="947" spans="2:19">
       <c r="B947" s="25">
-        <f t="shared" si="72"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C947" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D947" s="24"/>
@@ -23786,11 +23677,10 @@
     </row>
     <row r="948" spans="2:19">
       <c r="B948" s="25">
-        <f t="shared" si="72"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C948" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D948" s="24"/>
@@ -23812,11 +23702,10 @@
     </row>
     <row r="949" spans="2:19">
       <c r="B949" s="25">
-        <f t="shared" si="72"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C949" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D949" s="24"/>
@@ -23838,11 +23727,10 @@
     </row>
     <row r="950" spans="2:19">
       <c r="B950" s="25">
-        <f t="shared" si="72"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C950" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D950" s="24"/>
@@ -23864,11 +23752,10 @@
     </row>
     <row r="951" spans="2:19">
       <c r="B951" s="25">
-        <f t="shared" si="72"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C951" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D951" s="24"/>
@@ -23890,11 +23777,10 @@
     </row>
     <row r="952" spans="2:19">
       <c r="B952" s="25">
-        <f t="shared" si="72"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C952" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D952" s="24"/>
@@ -23916,11 +23802,10 @@
     </row>
     <row r="953" spans="2:19">
       <c r="B953" s="25">
-        <f t="shared" si="72"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C953" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D953" s="24"/>
@@ -23942,11 +23827,10 @@
     </row>
     <row r="954" spans="2:19">
       <c r="B954" s="25">
-        <f t="shared" si="72"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C954" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D954" s="24"/>
@@ -23968,11 +23852,10 @@
     </row>
     <row r="955" spans="2:19">
       <c r="B955" s="25">
-        <f t="shared" si="72"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C955" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D955" s="24"/>
@@ -23994,11 +23877,10 @@
     </row>
     <row r="956" spans="2:19">
       <c r="B956" s="25">
-        <f t="shared" si="72"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C956" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D956" s="24"/>
@@ -24020,11 +23902,10 @@
     </row>
     <row r="957" spans="2:19">
       <c r="B957" s="25">
-        <f t="shared" si="72"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C957" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D957" s="24"/>
@@ -24046,11 +23927,10 @@
     </row>
     <row r="958" spans="2:19">
       <c r="B958" s="25">
-        <f t="shared" si="72"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C958" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D958" s="24"/>
@@ -24072,11 +23952,10 @@
     </row>
     <row r="959" spans="2:19">
       <c r="B959" s="25">
-        <f t="shared" si="72"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C959" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D959" s="24"/>
@@ -24098,11 +23977,10 @@
     </row>
     <row r="960" spans="2:19">
       <c r="B960" s="25">
-        <f t="shared" si="72"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C960" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D960" s="24"/>
@@ -24124,11 +24002,10 @@
     </row>
     <row r="961" spans="2:19">
       <c r="B961" s="25">
-        <f t="shared" si="72"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C961" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D961" s="24"/>
@@ -24150,11 +24027,10 @@
     </row>
     <row r="962" spans="2:19">
       <c r="B962" s="25">
-        <f t="shared" si="72"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C962" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D962" s="24"/>
@@ -24176,11 +24052,10 @@
     </row>
     <row r="963" spans="2:19">
       <c r="B963" s="25">
-        <f t="shared" si="72"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C963" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D963" s="24"/>
@@ -24202,11 +24077,10 @@
     </row>
     <row r="964" spans="2:19">
       <c r="B964" s="25">
-        <f t="shared" si="72"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C964" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D964" s="24"/>
@@ -24228,11 +24102,10 @@
     </row>
     <row r="965" spans="2:19">
       <c r="B965" s="25">
-        <f t="shared" si="72"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C965" s="24">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="71"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D965" s="24"/>
@@ -24254,11 +24127,10 @@
     </row>
     <row r="966" spans="2:19">
       <c r="B966" s="25">
-        <f t="shared" ref="B966:B1029" si="74">B965+1</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C966" s="24">
-        <f t="shared" ref="C966:C1029" ca="1" si="75">C965-AVERAGE(C762:C763)</f>
+        <f t="shared" ref="C966:C1029" ca="1" si="72">C965-AVERAGE(C762:C763)</f>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D966" s="24"/>
@@ -24280,11 +24152,10 @@
     </row>
     <row r="967" spans="2:19">
       <c r="B967" s="25">
-        <f t="shared" si="74"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C967" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D967" s="24"/>
@@ -24306,11 +24177,10 @@
     </row>
     <row r="968" spans="2:19">
       <c r="B968" s="25">
-        <f t="shared" si="74"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C968" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D968" s="24"/>
@@ -24332,11 +24202,10 @@
     </row>
     <row r="969" spans="2:19">
       <c r="B969" s="25">
-        <f t="shared" si="74"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C969" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D969" s="24"/>
@@ -24358,11 +24227,10 @@
     </row>
     <row r="970" spans="2:19">
       <c r="B970" s="25">
-        <f t="shared" si="74"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C970" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D970" s="24"/>
@@ -24384,11 +24252,10 @@
     </row>
     <row r="971" spans="2:19">
       <c r="B971" s="25">
-        <f t="shared" si="74"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C971" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D971" s="24"/>
@@ -24410,11 +24277,10 @@
     </row>
     <row r="972" spans="2:19">
       <c r="B972" s="25">
-        <f t="shared" si="74"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C972" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D972" s="24"/>
@@ -24436,11 +24302,10 @@
     </row>
     <row r="973" spans="2:19">
       <c r="B973" s="25">
-        <f t="shared" si="74"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C973" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D973" s="24"/>
@@ -24462,11 +24327,10 @@
     </row>
     <row r="974" spans="2:19">
       <c r="B974" s="25">
-        <f t="shared" si="74"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C974" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D974" s="24"/>
@@ -24488,11 +24352,10 @@
     </row>
     <row r="975" spans="2:19">
       <c r="B975" s="25">
-        <f t="shared" si="74"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C975" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D975" s="24"/>
@@ -24514,11 +24377,10 @@
     </row>
     <row r="976" spans="2:19">
       <c r="B976" s="25">
-        <f t="shared" si="74"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C976" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D976" s="24"/>
@@ -24540,11 +24402,10 @@
     </row>
     <row r="977" spans="2:19">
       <c r="B977" s="25">
-        <f t="shared" si="74"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C977" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D977" s="24"/>
@@ -24566,11 +24427,10 @@
     </row>
     <row r="978" spans="2:19">
       <c r="B978" s="25">
-        <f t="shared" si="74"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C978" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D978" s="24"/>
@@ -24592,11 +24452,10 @@
     </row>
     <row r="979" spans="2:19">
       <c r="B979" s="25">
-        <f t="shared" si="74"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C979" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D979" s="24"/>
@@ -24618,11 +24477,10 @@
     </row>
     <row r="980" spans="2:19">
       <c r="B980" s="25">
-        <f t="shared" si="74"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C980" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D980" s="24"/>
@@ -24644,11 +24502,10 @@
     </row>
     <row r="981" spans="2:19">
       <c r="B981" s="25">
-        <f t="shared" si="74"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C981" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D981" s="24"/>
@@ -24670,11 +24527,10 @@
     </row>
     <row r="982" spans="2:19">
       <c r="B982" s="25">
-        <f t="shared" si="74"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C982" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D982" s="24"/>
@@ -24696,11 +24552,10 @@
     </row>
     <row r="983" spans="2:19">
       <c r="B983" s="25">
-        <f t="shared" si="74"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C983" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D983" s="24"/>
@@ -24722,11 +24577,10 @@
     </row>
     <row r="984" spans="2:19">
       <c r="B984" s="25">
-        <f t="shared" si="74"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C984" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D984" s="24"/>
@@ -24748,11 +24602,10 @@
     </row>
     <row r="985" spans="2:19">
       <c r="B985" s="25">
-        <f t="shared" si="74"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C985" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D985" s="24"/>
@@ -24774,11 +24627,10 @@
     </row>
     <row r="986" spans="2:19">
       <c r="B986" s="25">
-        <f t="shared" si="74"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C986" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D986" s="24"/>
@@ -24800,11 +24652,10 @@
     </row>
     <row r="987" spans="2:19">
       <c r="B987" s="25">
-        <f t="shared" si="74"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C987" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D987" s="24"/>
@@ -24826,11 +24677,10 @@
     </row>
     <row r="988" spans="2:19">
       <c r="B988" s="25">
-        <f t="shared" si="74"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C988" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D988" s="24"/>
@@ -24852,11 +24702,10 @@
     </row>
     <row r="989" spans="2:19">
       <c r="B989" s="25">
-        <f t="shared" si="74"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C989" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D989" s="24"/>
@@ -24878,11 +24727,10 @@
     </row>
     <row r="990" spans="2:19">
       <c r="B990" s="25">
-        <f t="shared" si="74"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C990" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D990" s="24"/>
@@ -24904,11 +24752,10 @@
     </row>
     <row r="991" spans="2:19">
       <c r="B991" s="25">
-        <f t="shared" si="74"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C991" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D991" s="24"/>
@@ -24930,11 +24777,10 @@
     </row>
     <row r="992" spans="2:19">
       <c r="B992" s="25">
-        <f t="shared" si="74"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C992" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D992" s="24"/>
@@ -24956,11 +24802,10 @@
     </row>
     <row r="993" spans="2:19">
       <c r="B993" s="25">
-        <f t="shared" si="74"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C993" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D993" s="24"/>
@@ -24982,11 +24827,10 @@
     </row>
     <row r="994" spans="2:19">
       <c r="B994" s="25">
-        <f t="shared" si="74"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C994" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D994" s="24"/>
@@ -25008,11 +24852,10 @@
     </row>
     <row r="995" spans="2:19">
       <c r="B995" s="25">
-        <f t="shared" si="74"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C995" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D995" s="24"/>
@@ -25034,11 +24877,10 @@
     </row>
     <row r="996" spans="2:19">
       <c r="B996" s="25">
-        <f t="shared" si="74"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C996" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D996" s="24"/>
@@ -25060,11 +24902,10 @@
     </row>
     <row r="997" spans="2:19">
       <c r="B997" s="25">
-        <f t="shared" si="74"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C997" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D997" s="24"/>
@@ -25086,11 +24927,10 @@
     </row>
     <row r="998" spans="2:19">
       <c r="B998" s="25">
-        <f t="shared" si="74"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C998" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D998" s="24"/>
@@ -25112,11 +24952,10 @@
     </row>
     <row r="999" spans="2:19">
       <c r="B999" s="25">
-        <f t="shared" si="74"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C999" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D999" s="24"/>
@@ -25138,11 +24977,10 @@
     </row>
     <row r="1000" spans="2:19">
       <c r="B1000" s="25">
-        <f t="shared" si="74"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1000" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1000" s="24"/>
@@ -25164,11 +25002,10 @@
     </row>
     <row r="1001" spans="2:19">
       <c r="B1001" s="25">
-        <f t="shared" si="74"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1001" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1001" s="24"/>
@@ -25190,11 +25027,10 @@
     </row>
     <row r="1002" spans="2:19">
       <c r="B1002" s="25">
-        <f t="shared" si="74"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1002" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1002" s="24"/>
@@ -25216,11 +25052,10 @@
     </row>
     <row r="1003" spans="2:19">
       <c r="B1003" s="25">
-        <f t="shared" si="74"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1003" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1003" s="24"/>
@@ -25242,11 +25077,10 @@
     </row>
     <row r="1004" spans="2:19">
       <c r="B1004" s="25">
-        <f t="shared" si="74"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1004" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1004" s="24"/>
@@ -25268,11 +25102,10 @@
     </row>
     <row r="1005" spans="2:19">
       <c r="B1005" s="25">
-        <f t="shared" si="74"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1005" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1005" s="24"/>
@@ -25294,11 +25127,10 @@
     </row>
     <row r="1006" spans="2:19">
       <c r="B1006" s="25">
-        <f t="shared" si="74"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1006" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1006" s="24"/>
@@ -25320,11 +25152,10 @@
     </row>
     <row r="1007" spans="2:19">
       <c r="B1007" s="25">
-        <f t="shared" si="74"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1007" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1007" s="24"/>
@@ -25346,11 +25177,10 @@
     </row>
     <row r="1008" spans="2:19">
       <c r="B1008" s="25">
-        <f t="shared" si="74"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1008" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1008" s="24"/>
@@ -25372,11 +25202,10 @@
     </row>
     <row r="1009" spans="2:19">
       <c r="B1009" s="25">
-        <f t="shared" si="74"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1009" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1009" s="24"/>
@@ -25398,11 +25227,10 @@
     </row>
     <row r="1010" spans="2:19">
       <c r="B1010" s="25">
-        <f t="shared" si="74"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1010" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1010" s="24"/>
@@ -25424,11 +25252,10 @@
     </row>
     <row r="1011" spans="2:19">
       <c r="B1011" s="25">
-        <f t="shared" si="74"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1011" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1011" s="24"/>
@@ -25450,11 +25277,10 @@
     </row>
     <row r="1012" spans="2:19">
       <c r="B1012" s="25">
-        <f t="shared" si="74"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1012" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1012" s="24"/>
@@ -25476,11 +25302,10 @@
     </row>
     <row r="1013" spans="2:19">
       <c r="B1013" s="25">
-        <f t="shared" si="74"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1013" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1013" s="24"/>
@@ -25502,11 +25327,10 @@
     </row>
     <row r="1014" spans="2:19">
       <c r="B1014" s="25">
-        <f t="shared" si="74"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1014" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1014" s="24"/>
@@ -25528,11 +25352,10 @@
     </row>
     <row r="1015" spans="2:19">
       <c r="B1015" s="25">
-        <f t="shared" si="74"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1015" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1015" s="24"/>
@@ -25554,11 +25377,10 @@
     </row>
     <row r="1016" spans="2:19">
       <c r="B1016" s="25">
-        <f t="shared" si="74"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1016" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1016" s="24"/>
@@ -25580,11 +25402,10 @@
     </row>
     <row r="1017" spans="2:19">
       <c r="B1017" s="25">
-        <f t="shared" si="74"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1017" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1017" s="24"/>
@@ -25606,11 +25427,10 @@
     </row>
     <row r="1018" spans="2:19">
       <c r="B1018" s="25">
-        <f t="shared" si="74"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1018" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1018" s="24"/>
@@ -25632,11 +25452,10 @@
     </row>
     <row r="1019" spans="2:19">
       <c r="B1019" s="25">
-        <f t="shared" si="74"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1019" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1019" s="24"/>
@@ -25658,11 +25477,10 @@
     </row>
     <row r="1020" spans="2:19">
       <c r="B1020" s="25">
-        <f t="shared" si="74"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1020" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1020" s="24"/>
@@ -25684,11 +25502,10 @@
     </row>
     <row r="1021" spans="2:19">
       <c r="B1021" s="25">
-        <f t="shared" si="74"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1021" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1021" s="24"/>
@@ -25710,11 +25527,10 @@
     </row>
     <row r="1022" spans="2:19">
       <c r="B1022" s="25">
-        <f t="shared" si="74"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1022" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1022" s="24"/>
@@ -25736,11 +25552,10 @@
     </row>
     <row r="1023" spans="2:19">
       <c r="B1023" s="25">
-        <f t="shared" si="74"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1023" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1023" s="24"/>
@@ -25762,11 +25577,10 @@
     </row>
     <row r="1024" spans="2:19">
       <c r="B1024" s="25">
-        <f t="shared" si="74"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1024" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1024" s="24"/>
@@ -25788,11 +25602,10 @@
     </row>
     <row r="1025" spans="2:19">
       <c r="B1025" s="25">
-        <f t="shared" si="74"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1025" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1025" s="24"/>
@@ -25814,11 +25627,10 @@
     </row>
     <row r="1026" spans="2:19">
       <c r="B1026" s="25">
-        <f t="shared" si="74"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1026" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1026" s="24"/>
@@ -25840,11 +25652,10 @@
     </row>
     <row r="1027" spans="2:19">
       <c r="B1027" s="25">
-        <f t="shared" si="74"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1027" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1027" s="24"/>
@@ -25866,11 +25677,10 @@
     </row>
     <row r="1028" spans="2:19">
       <c r="B1028" s="25">
-        <f t="shared" si="74"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1028" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1028" s="24"/>
@@ -25892,11 +25702,10 @@
     </row>
     <row r="1029" spans="2:19">
       <c r="B1029" s="25">
-        <f t="shared" si="74"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1029" s="24">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="72"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1029" s="24"/>
@@ -25918,11 +25727,10 @@
     </row>
     <row r="1030" spans="2:19">
       <c r="B1030" s="25">
-        <f t="shared" ref="B1030:B1036" si="76">B1029+1</f>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1030" s="24">
-        <f t="shared" ref="C1030:C1036" ca="1" si="77">C1029-AVERAGE(C826:C827)</f>
+        <f t="shared" ref="C1030:C1036" ca="1" si="73">C1029-AVERAGE(C826:C827)</f>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1030" s="24"/>
@@ -25944,11 +25752,10 @@
     </row>
     <row r="1031" spans="2:19">
       <c r="B1031" s="25">
-        <f t="shared" si="76"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1031" s="24">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="73"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1031" s="24"/>
@@ -25970,11 +25777,10 @@
     </row>
     <row r="1032" spans="2:19">
       <c r="B1032" s="25">
-        <f t="shared" si="76"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1032" s="24">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="73"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1032" s="24"/>
@@ -25996,11 +25802,10 @@
     </row>
     <row r="1033" spans="2:19">
       <c r="B1033" s="25">
-        <f t="shared" si="76"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1033" s="24">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="73"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1033" s="24"/>
@@ -26022,11 +25827,10 @@
     </row>
     <row r="1034" spans="2:19">
       <c r="B1034" s="25">
-        <f t="shared" si="76"/>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1034" s="24">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="73"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1034" s="24"/>
@@ -26048,11 +25852,10 @@
     </row>
     <row r="1035" spans="2:19">
       <c r="B1035" s="25">
-        <f t="shared" si="76"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1035" s="24">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="73"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1035" s="24"/>
@@ -26074,11 +25877,10 @@
     </row>
     <row r="1036" spans="2:19">
       <c r="B1036" s="25">
-        <f t="shared" si="76"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1036" s="24">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="73"/>
         <v>-1.9385534844040819E-16</v>
       </c>
       <c r="D1036" s="24"/>
@@ -26128,11 +25930,10 @@
     </row>
     <row r="1040" spans="2:19">
       <c r="B1040" s="25">
-        <f>B836</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1040" s="45">
-        <f t="shared" ref="C1040:C1054" si="78">IF($B1040&lt;C$165,1,IF($B1040&lt;C1023+1,C$165-$B1039,0))</f>
+        <f t="shared" ref="C1040:C1054" si="74">IF($B1040&lt;C$165,1,IF($B1040&lt;C1023+1,C$165-$B1039,0))</f>
         <v>1</v>
       </c>
       <c r="D1040" s="45"/>
@@ -26154,11 +25955,10 @@
     </row>
     <row r="1041" spans="2:19">
       <c r="B1041" s="25">
-        <f>B1040+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1041" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1041" s="45"/>
@@ -26180,11 +25980,10 @@
     </row>
     <row r="1042" spans="2:19">
       <c r="B1042" s="25">
-        <f t="shared" ref="B1042:B1105" si="79">B1041+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1042" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1042" s="45"/>
@@ -26206,11 +26005,10 @@
     </row>
     <row r="1043" spans="2:19">
       <c r="B1043" s="25">
-        <f t="shared" si="79"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1043" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1043" s="45"/>
@@ -26232,11 +26030,10 @@
     </row>
     <row r="1044" spans="2:19">
       <c r="B1044" s="25">
-        <f t="shared" si="79"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1044" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1044" s="45"/>
@@ -26258,11 +26055,10 @@
     </row>
     <row r="1045" spans="2:19">
       <c r="B1045" s="25">
-        <f t="shared" si="79"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1045" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1045" s="45"/>
@@ -26284,11 +26080,10 @@
     </row>
     <row r="1046" spans="2:19">
       <c r="B1046" s="25">
-        <f t="shared" si="79"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1046" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1046" s="45"/>
@@ -26310,11 +26105,10 @@
     </row>
     <row r="1047" spans="2:19">
       <c r="B1047" s="25">
-        <f t="shared" si="79"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1047" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1047" s="45"/>
@@ -26336,11 +26130,10 @@
     </row>
     <row r="1048" spans="2:19">
       <c r="B1048" s="25">
-        <f t="shared" si="79"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1048" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1048" s="45"/>
@@ -26362,11 +26155,10 @@
     </row>
     <row r="1049" spans="2:19">
       <c r="B1049" s="25">
-        <f t="shared" si="79"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1049" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1049" s="45"/>
@@ -26388,11 +26180,10 @@
     </row>
     <row r="1050" spans="2:19">
       <c r="B1050" s="25">
-        <f t="shared" si="79"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1050" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1050" s="45"/>
@@ -26414,11 +26205,10 @@
     </row>
     <row r="1051" spans="2:19">
       <c r="B1051" s="25">
-        <f t="shared" si="79"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1051" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1051" s="45"/>
@@ -26440,11 +26230,10 @@
     </row>
     <row r="1052" spans="2:19">
       <c r="B1052" s="25">
-        <f t="shared" si="79"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1052" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1052" s="45"/>
@@ -26466,11 +26255,10 @@
     </row>
     <row r="1053" spans="2:19">
       <c r="B1053" s="25">
-        <f t="shared" si="79"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1053" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1053" s="45"/>
@@ -26492,11 +26280,10 @@
     </row>
     <row r="1054" spans="2:19">
       <c r="B1054" s="25">
-        <f t="shared" si="79"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1054" s="45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="D1054" s="45"/>
@@ -26518,12 +26305,11 @@
     </row>
     <row r="1055" spans="2:19">
       <c r="B1055" s="25">
-        <f t="shared" si="79"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1055" s="45">
         <f>IF($B1055&lt;C$165,1,IF($B1055&lt;C1038+1,C$165-$B1054,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1055" s="45"/>
       <c r="E1055" s="45"/>
@@ -26544,11 +26330,10 @@
     </row>
     <row r="1056" spans="2:19">
       <c r="B1056" s="25">
-        <f t="shared" si="79"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1056" s="45">
-        <f t="shared" ref="C1056:C1119" si="80">IF($B1056&lt;C$165,1,IF($B1056&lt;C1039+1,C$165-$B1055,0))</f>
+        <f t="shared" ref="C1056:C1119" si="75">IF($B1056&lt;C$165,1,IF($B1056&lt;C1039+1,C$165-$B1055,0))</f>
         <v>0</v>
       </c>
       <c r="D1056" s="45"/>
@@ -26570,11 +26355,10 @@
     </row>
     <row r="1057" spans="2:19">
       <c r="B1057" s="25">
-        <f t="shared" si="79"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1057" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1057" s="45"/>
@@ -26596,11 +26380,10 @@
     </row>
     <row r="1058" spans="2:19">
       <c r="B1058" s="25">
-        <f t="shared" si="79"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1058" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1058" s="45"/>
@@ -26622,11 +26405,10 @@
     </row>
     <row r="1059" spans="2:19">
       <c r="B1059" s="25">
-        <f t="shared" si="79"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1059" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1059" s="45"/>
@@ -26648,11 +26430,10 @@
     </row>
     <row r="1060" spans="2:19">
       <c r="B1060" s="25">
-        <f t="shared" si="79"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1060" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1060" s="45"/>
@@ -26674,11 +26455,10 @@
     </row>
     <row r="1061" spans="2:19">
       <c r="B1061" s="25">
-        <f t="shared" si="79"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1061" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1061" s="45"/>
@@ -26700,11 +26480,10 @@
     </row>
     <row r="1062" spans="2:19">
       <c r="B1062" s="25">
-        <f t="shared" si="79"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1062" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1062" s="45"/>
@@ -26726,11 +26505,10 @@
     </row>
     <row r="1063" spans="2:19">
       <c r="B1063" s="25">
-        <f t="shared" si="79"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1063" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1063" s="45"/>
@@ -26752,11 +26530,10 @@
     </row>
     <row r="1064" spans="2:19">
       <c r="B1064" s="25">
-        <f t="shared" si="79"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1064" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1064" s="45"/>
@@ -26778,11 +26555,10 @@
     </row>
     <row r="1065" spans="2:19">
       <c r="B1065" s="25">
-        <f t="shared" si="79"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1065" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1065" s="45"/>
@@ -26804,11 +26580,10 @@
     </row>
     <row r="1066" spans="2:19">
       <c r="B1066" s="25">
-        <f t="shared" si="79"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1066" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1066" s="45"/>
@@ -26830,11 +26605,10 @@
     </row>
     <row r="1067" spans="2:19">
       <c r="B1067" s="25">
-        <f t="shared" si="79"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1067" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1067" s="45"/>
@@ -26856,11 +26630,10 @@
     </row>
     <row r="1068" spans="2:19">
       <c r="B1068" s="25">
-        <f t="shared" si="79"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1068" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1068" s="45"/>
@@ -26882,11 +26655,10 @@
     </row>
     <row r="1069" spans="2:19">
       <c r="B1069" s="25">
-        <f t="shared" si="79"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1069" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1069" s="45"/>
@@ -26908,11 +26680,10 @@
     </row>
     <row r="1070" spans="2:19">
       <c r="B1070" s="25">
-        <f t="shared" si="79"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1070" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1070" s="45"/>
@@ -26934,11 +26705,10 @@
     </row>
     <row r="1071" spans="2:19">
       <c r="B1071" s="25">
-        <f t="shared" si="79"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1071" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1071" s="45"/>
@@ -26960,11 +26730,10 @@
     </row>
     <row r="1072" spans="2:19">
       <c r="B1072" s="25">
-        <f t="shared" si="79"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1072" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1072" s="45"/>
@@ -26986,11 +26755,10 @@
     </row>
     <row r="1073" spans="2:19">
       <c r="B1073" s="25">
-        <f t="shared" si="79"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1073" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1073" s="45"/>
@@ -27012,11 +26780,10 @@
     </row>
     <row r="1074" spans="2:19">
       <c r="B1074" s="25">
-        <f t="shared" si="79"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1074" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1074" s="45"/>
@@ -27038,11 +26805,10 @@
     </row>
     <row r="1075" spans="2:19">
       <c r="B1075" s="25">
-        <f t="shared" si="79"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1075" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1075" s="45"/>
@@ -27064,11 +26830,10 @@
     </row>
     <row r="1076" spans="2:19">
       <c r="B1076" s="25">
-        <f t="shared" si="79"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1076" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1076" s="45"/>
@@ -27090,11 +26855,10 @@
     </row>
     <row r="1077" spans="2:19">
       <c r="B1077" s="25">
-        <f t="shared" si="79"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1077" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1077" s="45"/>
@@ -27116,11 +26880,10 @@
     </row>
     <row r="1078" spans="2:19">
       <c r="B1078" s="25">
-        <f t="shared" si="79"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1078" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1078" s="45"/>
@@ -27142,11 +26905,10 @@
     </row>
     <row r="1079" spans="2:19">
       <c r="B1079" s="25">
-        <f t="shared" si="79"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1079" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1079" s="45"/>
@@ -27168,11 +26930,10 @@
     </row>
     <row r="1080" spans="2:19">
       <c r="B1080" s="25">
-        <f t="shared" si="79"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1080" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1080" s="45"/>
@@ -27194,11 +26955,10 @@
     </row>
     <row r="1081" spans="2:19">
       <c r="B1081" s="25">
-        <f t="shared" si="79"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1081" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1081" s="45"/>
@@ -27220,11 +26980,10 @@
     </row>
     <row r="1082" spans="2:19">
       <c r="B1082" s="25">
-        <f t="shared" si="79"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1082" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1082" s="45"/>
@@ -27246,11 +27005,10 @@
     </row>
     <row r="1083" spans="2:19">
       <c r="B1083" s="25">
-        <f t="shared" si="79"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1083" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1083" s="45"/>
@@ -27272,11 +27030,10 @@
     </row>
     <row r="1084" spans="2:19">
       <c r="B1084" s="25">
-        <f t="shared" si="79"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1084" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1084" s="45"/>
@@ -27298,11 +27055,10 @@
     </row>
     <row r="1085" spans="2:19">
       <c r="B1085" s="25">
-        <f t="shared" si="79"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1085" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1085" s="45"/>
@@ -27324,11 +27080,10 @@
     </row>
     <row r="1086" spans="2:19">
       <c r="B1086" s="25">
-        <f t="shared" si="79"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1086" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1086" s="45"/>
@@ -27350,11 +27105,10 @@
     </row>
     <row r="1087" spans="2:19">
       <c r="B1087" s="25">
-        <f t="shared" si="79"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1087" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1087" s="45"/>
@@ -27376,11 +27130,10 @@
     </row>
     <row r="1088" spans="2:19">
       <c r="B1088" s="25">
-        <f t="shared" si="79"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1088" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1088" s="45"/>
@@ -27402,11 +27155,10 @@
     </row>
     <row r="1089" spans="2:19">
       <c r="B1089" s="25">
-        <f t="shared" si="79"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1089" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1089" s="45"/>
@@ -27428,11 +27180,10 @@
     </row>
     <row r="1090" spans="2:19">
       <c r="B1090" s="25">
-        <f t="shared" si="79"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1090" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1090" s="45"/>
@@ -27454,11 +27205,10 @@
     </row>
     <row r="1091" spans="2:19">
       <c r="B1091" s="25">
-        <f t="shared" si="79"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1091" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1091" s="45"/>
@@ -27480,11 +27230,10 @@
     </row>
     <row r="1092" spans="2:19">
       <c r="B1092" s="25">
-        <f t="shared" si="79"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1092" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1092" s="45"/>
@@ -27506,11 +27255,10 @@
     </row>
     <row r="1093" spans="2:19">
       <c r="B1093" s="25">
-        <f t="shared" si="79"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1093" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1093" s="45"/>
@@ -27532,11 +27280,10 @@
     </row>
     <row r="1094" spans="2:19">
       <c r="B1094" s="25">
-        <f t="shared" si="79"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1094" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1094" s="45"/>
@@ -27558,11 +27305,10 @@
     </row>
     <row r="1095" spans="2:19">
       <c r="B1095" s="25">
-        <f t="shared" si="79"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1095" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1095" s="45"/>
@@ -27584,11 +27330,10 @@
     </row>
     <row r="1096" spans="2:19">
       <c r="B1096" s="25">
-        <f t="shared" si="79"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1096" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1096" s="45"/>
@@ -27610,11 +27355,10 @@
     </row>
     <row r="1097" spans="2:19">
       <c r="B1097" s="25">
-        <f t="shared" si="79"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1097" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1097" s="45"/>
@@ -27636,11 +27380,10 @@
     </row>
     <row r="1098" spans="2:19">
       <c r="B1098" s="25">
-        <f t="shared" si="79"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1098" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1098" s="45"/>
@@ -27662,11 +27405,10 @@
     </row>
     <row r="1099" spans="2:19">
       <c r="B1099" s="25">
-        <f t="shared" si="79"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1099" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1099" s="45"/>
@@ -27688,11 +27430,10 @@
     </row>
     <row r="1100" spans="2:19">
       <c r="B1100" s="25">
-        <f t="shared" si="79"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1100" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1100" s="45"/>
@@ -27714,11 +27455,10 @@
     </row>
     <row r="1101" spans="2:19">
       <c r="B1101" s="25">
-        <f t="shared" si="79"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1101" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1101" s="45"/>
@@ -27740,11 +27480,10 @@
     </row>
     <row r="1102" spans="2:19">
       <c r="B1102" s="25">
-        <f t="shared" si="79"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1102" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1102" s="45"/>
@@ -27766,11 +27505,10 @@
     </row>
     <row r="1103" spans="2:19">
       <c r="B1103" s="25">
-        <f t="shared" si="79"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1103" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1103" s="45"/>
@@ -27792,11 +27530,10 @@
     </row>
     <row r="1104" spans="2:19">
       <c r="B1104" s="25">
-        <f t="shared" si="79"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1104" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1104" s="45"/>
@@ -27818,11 +27555,10 @@
     </row>
     <row r="1105" spans="2:19">
       <c r="B1105" s="25">
-        <f t="shared" si="79"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1105" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1105" s="45"/>
@@ -27844,11 +27580,10 @@
     </row>
     <row r="1106" spans="2:19">
       <c r="B1106" s="25">
-        <f t="shared" ref="B1106:B1169" si="81">B1105+1</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1106" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1106" s="45"/>
@@ -27870,11 +27605,10 @@
     </row>
     <row r="1107" spans="2:19">
       <c r="B1107" s="25">
-        <f t="shared" si="81"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1107" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1107" s="45"/>
@@ -27896,11 +27630,10 @@
     </row>
     <row r="1108" spans="2:19">
       <c r="B1108" s="25">
-        <f t="shared" si="81"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1108" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1108" s="45"/>
@@ -27922,11 +27655,10 @@
     </row>
     <row r="1109" spans="2:19">
       <c r="B1109" s="25">
-        <f t="shared" si="81"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1109" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1109" s="45"/>
@@ -27948,11 +27680,10 @@
     </row>
     <row r="1110" spans="2:19">
       <c r="B1110" s="25">
-        <f t="shared" si="81"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1110" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1110" s="45"/>
@@ -27974,11 +27705,10 @@
     </row>
     <row r="1111" spans="2:19">
       <c r="B1111" s="25">
-        <f t="shared" si="81"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1111" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1111" s="45"/>
@@ -28000,11 +27730,10 @@
     </row>
     <row r="1112" spans="2:19">
       <c r="B1112" s="25">
-        <f t="shared" si="81"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1112" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1112" s="45"/>
@@ -28026,11 +27755,10 @@
     </row>
     <row r="1113" spans="2:19">
       <c r="B1113" s="25">
-        <f t="shared" si="81"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1113" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1113" s="45"/>
@@ -28052,11 +27780,10 @@
     </row>
     <row r="1114" spans="2:19">
       <c r="B1114" s="25">
-        <f t="shared" si="81"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1114" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1114" s="45"/>
@@ -28078,11 +27805,10 @@
     </row>
     <row r="1115" spans="2:19">
       <c r="B1115" s="25">
-        <f t="shared" si="81"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1115" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1115" s="45"/>
@@ -28104,11 +27830,10 @@
     </row>
     <row r="1116" spans="2:19">
       <c r="B1116" s="25">
-        <f t="shared" si="81"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1116" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1116" s="45"/>
@@ -28130,11 +27855,10 @@
     </row>
     <row r="1117" spans="2:19">
       <c r="B1117" s="25">
-        <f t="shared" si="81"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1117" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1117" s="45"/>
@@ -28156,11 +27880,10 @@
     </row>
     <row r="1118" spans="2:19">
       <c r="B1118" s="25">
-        <f t="shared" si="81"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1118" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1118" s="45"/>
@@ -28182,11 +27905,10 @@
     </row>
     <row r="1119" spans="2:19">
       <c r="B1119" s="25">
-        <f t="shared" si="81"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1119" s="45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D1119" s="45"/>
@@ -28208,11 +27930,10 @@
     </row>
     <row r="1120" spans="2:19">
       <c r="B1120" s="25">
-        <f t="shared" si="81"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1120" s="45">
-        <f t="shared" ref="C1120:C1183" si="82">IF($B1120&lt;C$165,1,IF($B1120&lt;C1103+1,C$165-$B1119,0))</f>
+        <f t="shared" ref="C1120:C1183" si="76">IF($B1120&lt;C$165,1,IF($B1120&lt;C1103+1,C$165-$B1119,0))</f>
         <v>0</v>
       </c>
       <c r="D1120" s="45"/>
@@ -28234,11 +27955,10 @@
     </row>
     <row r="1121" spans="2:19">
       <c r="B1121" s="25">
-        <f t="shared" si="81"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1121" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1121" s="45"/>
@@ -28260,11 +27980,10 @@
     </row>
     <row r="1122" spans="2:19">
       <c r="B1122" s="25">
-        <f t="shared" si="81"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1122" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1122" s="45"/>
@@ -28286,11 +28005,10 @@
     </row>
     <row r="1123" spans="2:19">
       <c r="B1123" s="25">
-        <f t="shared" si="81"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1123" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1123" s="45"/>
@@ -28312,11 +28030,10 @@
     </row>
     <row r="1124" spans="2:19">
       <c r="B1124" s="25">
-        <f t="shared" si="81"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1124" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1124" s="45"/>
@@ -28338,11 +28055,10 @@
     </row>
     <row r="1125" spans="2:19">
       <c r="B1125" s="25">
-        <f t="shared" si="81"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1125" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1125" s="45"/>
@@ -28364,11 +28080,10 @@
     </row>
     <row r="1126" spans="2:19">
       <c r="B1126" s="25">
-        <f t="shared" si="81"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1126" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1126" s="45"/>
@@ -28390,11 +28105,10 @@
     </row>
     <row r="1127" spans="2:19">
       <c r="B1127" s="25">
-        <f t="shared" si="81"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1127" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1127" s="45"/>
@@ -28416,11 +28130,10 @@
     </row>
     <row r="1128" spans="2:19">
       <c r="B1128" s="25">
-        <f t="shared" si="81"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1128" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1128" s="45"/>
@@ -28442,11 +28155,10 @@
     </row>
     <row r="1129" spans="2:19">
       <c r="B1129" s="25">
-        <f t="shared" si="81"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1129" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1129" s="45"/>
@@ -28468,11 +28180,10 @@
     </row>
     <row r="1130" spans="2:19">
       <c r="B1130" s="25">
-        <f t="shared" si="81"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1130" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1130" s="45"/>
@@ -28494,11 +28205,10 @@
     </row>
     <row r="1131" spans="2:19">
       <c r="B1131" s="25">
-        <f t="shared" si="81"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1131" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1131" s="45"/>
@@ -28520,11 +28230,10 @@
     </row>
     <row r="1132" spans="2:19">
       <c r="B1132" s="25">
-        <f t="shared" si="81"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1132" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1132" s="45"/>
@@ -28546,11 +28255,10 @@
     </row>
     <row r="1133" spans="2:19">
       <c r="B1133" s="25">
-        <f t="shared" si="81"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1133" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1133" s="45"/>
@@ -28572,11 +28280,10 @@
     </row>
     <row r="1134" spans="2:19">
       <c r="B1134" s="25">
-        <f t="shared" si="81"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1134" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1134" s="45"/>
@@ -28598,11 +28305,10 @@
     </row>
     <row r="1135" spans="2:19">
       <c r="B1135" s="25">
-        <f t="shared" si="81"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1135" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1135" s="45"/>
@@ -28624,11 +28330,10 @@
     </row>
     <row r="1136" spans="2:19">
       <c r="B1136" s="25">
-        <f t="shared" si="81"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1136" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1136" s="45"/>
@@ -28650,11 +28355,10 @@
     </row>
     <row r="1137" spans="2:19">
       <c r="B1137" s="25">
-        <f t="shared" si="81"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1137" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1137" s="45"/>
@@ -28676,11 +28380,10 @@
     </row>
     <row r="1138" spans="2:19">
       <c r="B1138" s="25">
-        <f t="shared" si="81"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1138" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1138" s="45"/>
@@ -28702,11 +28405,10 @@
     </row>
     <row r="1139" spans="2:19">
       <c r="B1139" s="25">
-        <f t="shared" si="81"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1139" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1139" s="45"/>
@@ -28728,11 +28430,10 @@
     </row>
     <row r="1140" spans="2:19">
       <c r="B1140" s="25">
-        <f t="shared" si="81"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1140" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1140" s="45"/>
@@ -28754,11 +28455,10 @@
     </row>
     <row r="1141" spans="2:19">
       <c r="B1141" s="25">
-        <f t="shared" si="81"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1141" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1141" s="45"/>
@@ -28780,11 +28480,10 @@
     </row>
     <row r="1142" spans="2:19">
       <c r="B1142" s="25">
-        <f t="shared" si="81"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1142" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1142" s="45"/>
@@ -28806,11 +28505,10 @@
     </row>
     <row r="1143" spans="2:19">
       <c r="B1143" s="25">
-        <f t="shared" si="81"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1143" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1143" s="45"/>
@@ -28832,11 +28530,10 @@
     </row>
     <row r="1144" spans="2:19">
       <c r="B1144" s="25">
-        <f t="shared" si="81"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1144" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1144" s="45"/>
@@ -28858,11 +28555,10 @@
     </row>
     <row r="1145" spans="2:19">
       <c r="B1145" s="25">
-        <f t="shared" si="81"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1145" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1145" s="45"/>
@@ -28884,11 +28580,10 @@
     </row>
     <row r="1146" spans="2:19">
       <c r="B1146" s="25">
-        <f t="shared" si="81"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1146" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1146" s="45"/>
@@ -28910,11 +28605,10 @@
     </row>
     <row r="1147" spans="2:19">
       <c r="B1147" s="25">
-        <f t="shared" si="81"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1147" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1147" s="45"/>
@@ -28936,11 +28630,10 @@
     </row>
     <row r="1148" spans="2:19">
       <c r="B1148" s="25">
-        <f t="shared" si="81"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1148" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1148" s="45"/>
@@ -28962,11 +28655,10 @@
     </row>
     <row r="1149" spans="2:19">
       <c r="B1149" s="25">
-        <f t="shared" si="81"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1149" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1149" s="45"/>
@@ -28988,11 +28680,10 @@
     </row>
     <row r="1150" spans="2:19">
       <c r="B1150" s="25">
-        <f t="shared" si="81"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1150" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1150" s="45"/>
@@ -29014,11 +28705,10 @@
     </row>
     <row r="1151" spans="2:19">
       <c r="B1151" s="25">
-        <f t="shared" si="81"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1151" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1151" s="45"/>
@@ -29040,11 +28730,10 @@
     </row>
     <row r="1152" spans="2:19">
       <c r="B1152" s="25">
-        <f t="shared" si="81"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1152" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1152" s="45"/>
@@ -29066,11 +28755,10 @@
     </row>
     <row r="1153" spans="2:19">
       <c r="B1153" s="25">
-        <f t="shared" si="81"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1153" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1153" s="45"/>
@@ -29092,11 +28780,10 @@
     </row>
     <row r="1154" spans="2:19">
       <c r="B1154" s="25">
-        <f t="shared" si="81"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1154" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1154" s="45"/>
@@ -29118,11 +28805,10 @@
     </row>
     <row r="1155" spans="2:19">
       <c r="B1155" s="25">
-        <f t="shared" si="81"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1155" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1155" s="45"/>
@@ -29144,11 +28830,10 @@
     </row>
     <row r="1156" spans="2:19">
       <c r="B1156" s="25">
-        <f t="shared" si="81"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1156" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1156" s="45"/>
@@ -29170,11 +28855,10 @@
     </row>
     <row r="1157" spans="2:19">
       <c r="B1157" s="25">
-        <f t="shared" si="81"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1157" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1157" s="45"/>
@@ -29196,11 +28880,10 @@
     </row>
     <row r="1158" spans="2:19">
       <c r="B1158" s="25">
-        <f t="shared" si="81"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1158" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1158" s="45"/>
@@ -29222,11 +28905,10 @@
     </row>
     <row r="1159" spans="2:19">
       <c r="B1159" s="25">
-        <f t="shared" si="81"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1159" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1159" s="45"/>
@@ -29248,11 +28930,10 @@
     </row>
     <row r="1160" spans="2:19">
       <c r="B1160" s="25">
-        <f t="shared" si="81"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1160" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1160" s="45"/>
@@ -29274,11 +28955,10 @@
     </row>
     <row r="1161" spans="2:19">
       <c r="B1161" s="25">
-        <f t="shared" si="81"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1161" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1161" s="45"/>
@@ -29300,11 +28980,10 @@
     </row>
     <row r="1162" spans="2:19">
       <c r="B1162" s="25">
-        <f t="shared" si="81"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1162" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1162" s="45"/>
@@ -29326,11 +29005,10 @@
     </row>
     <row r="1163" spans="2:19">
       <c r="B1163" s="25">
-        <f t="shared" si="81"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1163" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1163" s="45"/>
@@ -29352,11 +29030,10 @@
     </row>
     <row r="1164" spans="2:19">
       <c r="B1164" s="25">
-        <f t="shared" si="81"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1164" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1164" s="45"/>
@@ -29378,11 +29055,10 @@
     </row>
     <row r="1165" spans="2:19">
       <c r="B1165" s="25">
-        <f t="shared" si="81"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1165" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1165" s="45"/>
@@ -29404,11 +29080,10 @@
     </row>
     <row r="1166" spans="2:19">
       <c r="B1166" s="25">
-        <f t="shared" si="81"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1166" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1166" s="45"/>
@@ -29430,11 +29105,10 @@
     </row>
     <row r="1167" spans="2:19">
       <c r="B1167" s="25">
-        <f t="shared" si="81"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1167" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1167" s="45"/>
@@ -29456,11 +29130,10 @@
     </row>
     <row r="1168" spans="2:19">
       <c r="B1168" s="25">
-        <f t="shared" si="81"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1168" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1168" s="45"/>
@@ -29482,11 +29155,10 @@
     </row>
     <row r="1169" spans="2:19">
       <c r="B1169" s="25">
-        <f t="shared" si="81"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1169" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1169" s="45"/>
@@ -29508,11 +29180,10 @@
     </row>
     <row r="1170" spans="2:19">
       <c r="B1170" s="25">
-        <f t="shared" ref="B1170:B1233" si="83">B1169+1</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1170" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1170" s="45"/>
@@ -29534,11 +29205,10 @@
     </row>
     <row r="1171" spans="2:19">
       <c r="B1171" s="25">
-        <f t="shared" si="83"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1171" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1171" s="45"/>
@@ -29560,11 +29230,10 @@
     </row>
     <row r="1172" spans="2:19">
       <c r="B1172" s="25">
-        <f t="shared" si="83"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1172" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1172" s="45"/>
@@ -29586,11 +29255,10 @@
     </row>
     <row r="1173" spans="2:19">
       <c r="B1173" s="25">
-        <f t="shared" si="83"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1173" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1173" s="45"/>
@@ -29612,11 +29280,10 @@
     </row>
     <row r="1174" spans="2:19">
       <c r="B1174" s="25">
-        <f t="shared" si="83"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1174" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1174" s="45"/>
@@ -29638,11 +29305,10 @@
     </row>
     <row r="1175" spans="2:19">
       <c r="B1175" s="25">
-        <f t="shared" si="83"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1175" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1175" s="45"/>
@@ -29664,11 +29330,10 @@
     </row>
     <row r="1176" spans="2:19">
       <c r="B1176" s="25">
-        <f t="shared" si="83"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1176" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1176" s="45"/>
@@ -29690,11 +29355,10 @@
     </row>
     <row r="1177" spans="2:19">
       <c r="B1177" s="25">
-        <f t="shared" si="83"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1177" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1177" s="45"/>
@@ -29716,11 +29380,10 @@
     </row>
     <row r="1178" spans="2:19">
       <c r="B1178" s="25">
-        <f t="shared" si="83"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1178" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1178" s="45"/>
@@ -29742,11 +29405,10 @@
     </row>
     <row r="1179" spans="2:19">
       <c r="B1179" s="25">
-        <f t="shared" si="83"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1179" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1179" s="45"/>
@@ -29768,11 +29430,10 @@
     </row>
     <row r="1180" spans="2:19">
       <c r="B1180" s="25">
-        <f t="shared" si="83"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1180" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1180" s="45"/>
@@ -29794,11 +29455,10 @@
     </row>
     <row r="1181" spans="2:19">
       <c r="B1181" s="25">
-        <f t="shared" si="83"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1181" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1181" s="45"/>
@@ -29820,11 +29480,10 @@
     </row>
     <row r="1182" spans="2:19">
       <c r="B1182" s="25">
-        <f t="shared" si="83"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1182" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1182" s="45"/>
@@ -29846,11 +29505,10 @@
     </row>
     <row r="1183" spans="2:19">
       <c r="B1183" s="25">
-        <f t="shared" si="83"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1183" s="45">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D1183" s="45"/>
@@ -29872,11 +29530,10 @@
     </row>
     <row r="1184" spans="2:19">
       <c r="B1184" s="25">
-        <f t="shared" si="83"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1184" s="45">
-        <f t="shared" ref="C1184:C1240" si="84">IF($B1184&lt;C$165,1,IF($B1184&lt;C1167+1,C$165-$B1183,0))</f>
+        <f t="shared" ref="C1184:C1240" si="77">IF($B1184&lt;C$165,1,IF($B1184&lt;C1167+1,C$165-$B1183,0))</f>
         <v>0</v>
       </c>
       <c r="D1184" s="45"/>
@@ -29898,11 +29555,10 @@
     </row>
     <row r="1185" spans="2:19">
       <c r="B1185" s="25">
-        <f t="shared" si="83"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1185" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1185" s="45"/>
@@ -29924,11 +29580,10 @@
     </row>
     <row r="1186" spans="2:19">
       <c r="B1186" s="25">
-        <f t="shared" si="83"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1186" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1186" s="45"/>
@@ -29950,11 +29605,10 @@
     </row>
     <row r="1187" spans="2:19">
       <c r="B1187" s="25">
-        <f t="shared" si="83"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1187" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1187" s="45"/>
@@ -29976,11 +29630,10 @@
     </row>
     <row r="1188" spans="2:19">
       <c r="B1188" s="25">
-        <f t="shared" si="83"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1188" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1188" s="45"/>
@@ -30002,11 +29655,10 @@
     </row>
     <row r="1189" spans="2:19">
       <c r="B1189" s="25">
-        <f t="shared" si="83"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1189" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1189" s="45"/>
@@ -30028,11 +29680,10 @@
     </row>
     <row r="1190" spans="2:19">
       <c r="B1190" s="25">
-        <f t="shared" si="83"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1190" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1190" s="45"/>
@@ -30054,11 +29705,10 @@
     </row>
     <row r="1191" spans="2:19">
       <c r="B1191" s="25">
-        <f t="shared" si="83"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C1191" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1191" s="45"/>
@@ -30080,11 +29730,10 @@
     </row>
     <row r="1192" spans="2:19">
       <c r="B1192" s="25">
-        <f t="shared" si="83"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1192" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1192" s="45"/>
@@ -30106,11 +29755,10 @@
     </row>
     <row r="1193" spans="2:19">
       <c r="B1193" s="25">
-        <f t="shared" si="83"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1193" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1193" s="45"/>
@@ -30132,11 +29780,10 @@
     </row>
     <row r="1194" spans="2:19">
       <c r="B1194" s="25">
-        <f t="shared" si="83"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1194" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1194" s="45"/>
@@ -30158,11 +29805,10 @@
     </row>
     <row r="1195" spans="2:19">
       <c r="B1195" s="25">
-        <f t="shared" si="83"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1195" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1195" s="45"/>
@@ -30184,11 +29830,10 @@
     </row>
     <row r="1196" spans="2:19">
       <c r="B1196" s="25">
-        <f t="shared" si="83"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1196" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1196" s="45"/>
@@ -30210,11 +29855,10 @@
     </row>
     <row r="1197" spans="2:19">
       <c r="B1197" s="25">
-        <f t="shared" si="83"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1197" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1197" s="45"/>
@@ -30236,11 +29880,10 @@
     </row>
     <row r="1198" spans="2:19">
       <c r="B1198" s="25">
-        <f t="shared" si="83"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1198" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1198" s="45"/>
@@ -30262,11 +29905,10 @@
     </row>
     <row r="1199" spans="2:19">
       <c r="B1199" s="25">
-        <f t="shared" si="83"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1199" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1199" s="45"/>
@@ -30288,11 +29930,10 @@
     </row>
     <row r="1200" spans="2:19">
       <c r="B1200" s="25">
-        <f t="shared" si="83"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1200" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1200" s="45"/>
@@ -30314,11 +29955,10 @@
     </row>
     <row r="1201" spans="2:19">
       <c r="B1201" s="25">
-        <f t="shared" si="83"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1201" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1201" s="45"/>
@@ -30340,11 +29980,10 @@
     </row>
     <row r="1202" spans="2:19">
       <c r="B1202" s="25">
-        <f t="shared" si="83"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1202" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1202" s="45"/>
@@ -30366,11 +30005,10 @@
     </row>
     <row r="1203" spans="2:19">
       <c r="B1203" s="25">
-        <f t="shared" si="83"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1203" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1203" s="45"/>
@@ -30392,11 +30030,10 @@
     </row>
     <row r="1204" spans="2:19">
       <c r="B1204" s="25">
-        <f t="shared" si="83"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1204" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1204" s="45"/>
@@ -30418,11 +30055,10 @@
     </row>
     <row r="1205" spans="2:19">
       <c r="B1205" s="25">
-        <f t="shared" si="83"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1205" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1205" s="45"/>
@@ -30444,11 +30080,10 @@
     </row>
     <row r="1206" spans="2:19">
       <c r="B1206" s="25">
-        <f t="shared" si="83"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1206" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1206" s="45"/>
@@ -30470,11 +30105,10 @@
     </row>
     <row r="1207" spans="2:19">
       <c r="B1207" s="25">
-        <f t="shared" si="83"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1207" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1207" s="45"/>
@@ -30496,11 +30130,10 @@
     </row>
     <row r="1208" spans="2:19">
       <c r="B1208" s="25">
-        <f t="shared" si="83"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1208" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1208" s="45"/>
@@ -30522,11 +30155,10 @@
     </row>
     <row r="1209" spans="2:19">
       <c r="B1209" s="25">
-        <f t="shared" si="83"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1209" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1209" s="45"/>
@@ -30548,11 +30180,10 @@
     </row>
     <row r="1210" spans="2:19">
       <c r="B1210" s="25">
-        <f t="shared" si="83"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1210" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1210" s="45"/>
@@ -30574,11 +30205,10 @@
     </row>
     <row r="1211" spans="2:19">
       <c r="B1211" s="25">
-        <f t="shared" si="83"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1211" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1211" s="45"/>
@@ -30600,11 +30230,10 @@
     </row>
     <row r="1212" spans="2:19">
       <c r="B1212" s="25">
-        <f t="shared" si="83"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1212" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1212" s="45"/>
@@ -30626,11 +30255,10 @@
     </row>
     <row r="1213" spans="2:19">
       <c r="B1213" s="25">
-        <f t="shared" si="83"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1213" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1213" s="45"/>
@@ -30652,11 +30280,10 @@
     </row>
     <row r="1214" spans="2:19">
       <c r="B1214" s="25">
-        <f t="shared" si="83"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1214" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1214" s="45"/>
@@ -30678,11 +30305,10 @@
     </row>
     <row r="1215" spans="2:19">
       <c r="B1215" s="25">
-        <f t="shared" si="83"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1215" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1215" s="45"/>
@@ -30704,11 +30330,10 @@
     </row>
     <row r="1216" spans="2:19">
       <c r="B1216" s="25">
-        <f t="shared" si="83"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1216" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1216" s="45"/>
@@ -30730,11 +30355,10 @@
     </row>
     <row r="1217" spans="2:19">
       <c r="B1217" s="25">
-        <f t="shared" si="83"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1217" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1217" s="45"/>
@@ -30756,11 +30380,10 @@
     </row>
     <row r="1218" spans="2:19">
       <c r="B1218" s="25">
-        <f t="shared" si="83"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1218" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1218" s="45"/>
@@ -30782,11 +30405,10 @@
     </row>
     <row r="1219" spans="2:19">
       <c r="B1219" s="25">
-        <f t="shared" si="83"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1219" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1219" s="45"/>
@@ -30808,11 +30430,10 @@
     </row>
     <row r="1220" spans="2:19">
       <c r="B1220" s="25">
-        <f t="shared" si="83"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1220" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1220" s="45"/>
@@ -30834,11 +30455,10 @@
     </row>
     <row r="1221" spans="2:19">
       <c r="B1221" s="25">
-        <f t="shared" si="83"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1221" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1221" s="45"/>
@@ -30860,11 +30480,10 @@
     </row>
     <row r="1222" spans="2:19">
       <c r="B1222" s="25">
-        <f t="shared" si="83"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1222" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1222" s="45"/>
@@ -30886,11 +30505,10 @@
     </row>
     <row r="1223" spans="2:19">
       <c r="B1223" s="25">
-        <f t="shared" si="83"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1223" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1223" s="45"/>
@@ -30912,11 +30530,10 @@
     </row>
     <row r="1224" spans="2:19">
       <c r="B1224" s="25">
-        <f t="shared" si="83"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1224" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1224" s="45"/>
@@ -30938,11 +30555,10 @@
     </row>
     <row r="1225" spans="2:19">
       <c r="B1225" s="25">
-        <f t="shared" si="83"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1225" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1225" s="45"/>
@@ -30964,11 +30580,10 @@
     </row>
     <row r="1226" spans="2:19">
       <c r="B1226" s="25">
-        <f t="shared" si="83"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1226" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1226" s="45"/>
@@ -30990,11 +30605,10 @@
     </row>
     <row r="1227" spans="2:19">
       <c r="B1227" s="25">
-        <f t="shared" si="83"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1227" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1227" s="45"/>
@@ -31016,11 +30630,10 @@
     </row>
     <row r="1228" spans="2:19">
       <c r="B1228" s="25">
-        <f t="shared" si="83"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1228" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1228" s="45"/>
@@ -31042,11 +30655,10 @@
     </row>
     <row r="1229" spans="2:19">
       <c r="B1229" s="25">
-        <f t="shared" si="83"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1229" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1229" s="45"/>
@@ -31068,11 +30680,10 @@
     </row>
     <row r="1230" spans="2:19">
       <c r="B1230" s="25">
-        <f t="shared" si="83"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1230" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1230" s="45"/>
@@ -31094,11 +30705,10 @@
     </row>
     <row r="1231" spans="2:19">
       <c r="B1231" s="25">
-        <f t="shared" si="83"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1231" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1231" s="45"/>
@@ -31120,11 +30730,10 @@
     </row>
     <row r="1232" spans="2:19">
       <c r="B1232" s="25">
-        <f t="shared" si="83"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1232" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1232" s="45"/>
@@ -31146,11 +30755,10 @@
     </row>
     <row r="1233" spans="1:19">
       <c r="B1233" s="25">
-        <f t="shared" si="83"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1233" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1233" s="45"/>
@@ -31172,11 +30780,10 @@
     </row>
     <row r="1234" spans="1:19">
       <c r="B1234" s="25">
-        <f t="shared" ref="B1234:B1240" si="85">B1233+1</f>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1234" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1234" s="45"/>
@@ -31198,11 +30805,10 @@
     </row>
     <row r="1235" spans="1:19">
       <c r="B1235" s="25">
-        <f t="shared" si="85"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1235" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1235" s="45"/>
@@ -31224,11 +30830,10 @@
     </row>
     <row r="1236" spans="1:19">
       <c r="B1236" s="25">
-        <f t="shared" si="85"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1236" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1236" s="45"/>
@@ -31250,11 +30855,10 @@
     </row>
     <row r="1237" spans="1:19">
       <c r="B1237" s="25">
-        <f t="shared" si="85"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1237" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1237" s="45"/>
@@ -31276,11 +30880,10 @@
     </row>
     <row r="1238" spans="1:19">
       <c r="B1238" s="25">
-        <f t="shared" si="85"/>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1238" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1238" s="45"/>
@@ -31302,11 +30905,10 @@
     </row>
     <row r="1239" spans="1:19">
       <c r="B1239" s="25">
-        <f t="shared" si="85"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1239" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1239" s="45"/>
@@ -31328,11 +30930,10 @@
     </row>
     <row r="1240" spans="1:19">
       <c r="B1240" s="25">
-        <f t="shared" si="85"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1240" s="45">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D1240" s="45"/>
@@ -31365,7 +30966,7 @@
         <v>26</v>
       </c>
       <c r="C1243" s="24">
-        <f t="shared" ref="C1243" ca="1" si="86">C835*C160</f>
+        <f t="shared" ref="C1243" ca="1" si="78">C835*C160</f>
         <v>0.25667351129363447</v>
       </c>
       <c r="D1243" s="24" t="str">
@@ -31393,8 +30994,8 @@
         <v>22</v>
       </c>
       <c r="C1244" s="9">
-        <f t="shared" ref="C1244" ca="1" si="87">SUMPRODUCT(C1040:C1240,C836:C1036)/C165</f>
-        <v>0.98079454804047428</v>
+        <f t="shared" ref="C1244" ca="1" si="79">SUMPRODUCT(C1040:C1240,C836:C1036)/C165</f>
+        <v>1.0459281432475469</v>
       </c>
       <c r="D1244" s="24" t="str">
         <f>$B$1242&amp;" "&amp;B1244</f>
@@ -31421,8 +31022,8 @@
         <v>27</v>
       </c>
       <c r="C1245" s="9">
-        <f t="shared" ref="C1245" ca="1" si="88">(C180-SUM(C1248:C1249))/(C116*TWh_per_GW)</f>
-        <v>0.35255123437822339</v>
+        <f t="shared" ref="C1245" ca="1" si="80">(C180-SUM(C1248:C1249))/(C116*TWh_per_GW)</f>
+        <v>0.33764517424792478</v>
       </c>
       <c r="D1245" s="24" t="str">
         <f>$B$1242&amp;" "&amp;B1245</f>
@@ -31460,7 +31061,7 @@
         <v>26</v>
       </c>
       <c r="C1248" s="6">
-        <f t="shared" ref="C1248" ca="1" si="89">C159*C1243*TWh_per_GW</f>
+        <f t="shared" ref="C1248" ca="1" si="81">C159*C1243*TWh_per_GW</f>
         <v>15.749999999999998</v>
       </c>
       <c r="D1248" s="24" t="str">
@@ -31491,8 +31092,8 @@
         <v>25</v>
       </c>
       <c r="C1249" s="6">
-        <f t="shared" ref="C1249" ca="1" si="90">C165*C1244*TWh_per_GW</f>
-        <v>131.47518746421383</v>
+        <f t="shared" ref="C1249" ca="1" si="82">C165*C1244*TWh_per_GW</f>
+        <v>140.20632453790267</v>
       </c>
       <c r="D1249" s="24" t="str">
         <f>$B$1247&amp;" "&amp;B1249</f>
@@ -31522,8 +31123,8 @@
         <v>27</v>
       </c>
       <c r="C1250" s="6">
-        <f t="shared" ref="C1250" ca="1" si="91">C172*C1245*TWh_per_GW</f>
-        <v>206.50481253578616</v>
+        <f t="shared" ref="C1250" ca="1" si="83">C172*C1245*TWh_per_GW</f>
+        <v>197.77367546209734</v>
       </c>
       <c r="D1250" s="24" t="str">
         <f>$B$1247&amp;" "&amp;B1250</f>
@@ -31584,7 +31185,7 @@
         <v>30</v>
       </c>
       <c r="C1252" s="8">
-        <f t="shared" ref="C1252" ca="1" si="92">C180-C1251</f>
+        <f t="shared" ref="C1252" ca="1" si="84">C180-C1251</f>
         <v>0</v>
       </c>
       <c r="D1252" s="24" t="str">
@@ -31620,8 +31221,8 @@
         <v>27</v>
       </c>
       <c r="C1255" s="8">
-        <f t="shared" ref="C1255" ca="1" si="93">C1250*C174/1000</f>
-        <v>156.99875761236635</v>
+        <f t="shared" ref="C1255" ca="1" si="85">C1250*C174/1000</f>
+        <v>150.36076377445099</v>
       </c>
       <c r="D1255" s="8"/>
       <c r="E1255" s="8"/>
@@ -31677,7 +31278,7 @@
       </c>
       <c r="C1257" s="8">
         <f ca="1">SUM(C1255:C1256)</f>
-        <v>234.99875761236635</v>
+        <v>228.36076377445099</v>
       </c>
       <c r="D1257" s="8"/>
       <c r="E1257" s="8"/>
@@ -31705,7 +31306,7 @@
       </c>
       <c r="C1259" s="8">
         <f ca="1">C1255*1000/C1251</f>
-        <v>443.83783567231035</v>
+        <v>425.07212782192909</v>
       </c>
       <c r="D1259" s="8"/>
       <c r="E1259" s="8"/>
